--- a/2024AM/Data/INPUT/Macro and elasticities/Inputs elasticities 2027.xlsx
+++ b/2024AM/Data/INPUT/Macro and elasticities/Inputs elasticities 2027.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/iosoriorodarte_worldbank_org/Documents/ETIRI/Projects/FY24/FY24 5 SAS - Bangladesh/BGD_branch/02_SM2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f3d9369a3ab00f0/WBG/ETIRI/Projects/FY25/FY25 - SAR MPO AM24/BGD-MPO-Microsimulation/2024AM/Data/INPUT/Macro and elasticities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{AD8C9525-3B8B-478F-96E0-5820E98FF79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B749CAA-0FAD-45B2-BC8F-486D31079881}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="6_{1AC7072B-1F4D-6347-A4E2-C4F07A792886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88BCF0E3-77EA-F947-9B74-3F10305DF30A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="34800" windowHeight="19080" activeTab="4" xr2:uid="{E93185CF-480B-4E3C-B588-1ACF0BE2B580}"/>
+    <workbookView xWindow="4880" yWindow="500" windowWidth="35240" windowHeight="24780" activeTab="7" xr2:uid="{E93185CF-480B-4E3C-B588-1ACF0BE2B580}"/>
   </bookViews>
   <sheets>
     <sheet name="match sectors" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="parameters" sheetId="5" r:id="rId5"/>
     <sheet name="input_setup" sheetId="11" r:id="rId6"/>
     <sheet name="input_gdp" sheetId="12" r:id="rId7"/>
-    <sheet name="input_gdp2" sheetId="3" r:id="rId8"/>
+    <sheet name="input_labor_incomes" sheetId="3" r:id="rId8"/>
     <sheet name="input_labor" sheetId="8" r:id="rId9"/>
     <sheet name="input_nonlabor" sheetId="9" r:id="rId10"/>
     <sheet name="input_pop_wdi" sheetId="13" r:id="rId11"/>
@@ -63,7 +63,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Israel Osorio-Rodarte:</t>
         </r>
@@ -72,7 +72,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This number was 166,149,998 from (GMD). Note: It doesn't match the new SARMD used for simulation. The column was replaced with new figures</t>
@@ -87,7 +87,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Israel Osorio-Rodarte:</t>
         </r>
@@ -96,7 +96,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 There are 4.58 million individuals between 15 and 64 that are employed and do not have an industry</t>
@@ -757,14 +757,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1329,7 +1329,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1669,19 +1669,12 @@
     <xf numFmtId="43" fontId="0" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="12" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3450,9 +3443,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3490,7 +3483,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3596,7 +3589,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3738,7 +3731,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3752,18 +3745,18 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3771,7 +3764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3785,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3799,7 +3792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3813,7 +3806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3827,7 +3820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3841,7 +3834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -3855,7 +3848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3869,7 +3862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3883,7 +3876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3897,7 +3890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -3911,7 +3904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -3930,9 +3923,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="108" t="s">
         <v>104</v>
       </c>
@@ -3940,7 +3933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="106" t="s">
         <v>77</v>
       </c>
@@ -3949,7 +3942,7 @@
         <v>0.23412253381996617</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="106" t="s">
         <v>105</v>
       </c>
@@ -3958,7 +3951,7 @@
         <v>0.33244464131461493</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="106" t="s">
         <v>106</v>
       </c>
@@ -3967,7 +3960,7 @@
         <v>0.33244464131461493</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="106" t="s">
         <v>82</v>
       </c>
@@ -3990,9 +3983,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>114</v>
       </c>
@@ -4000,7 +3993,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="106" t="s">
         <v>116</v>
       </c>
@@ -4023,15 +4016,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="93"/>
       <c r="B2" s="94">
         <v>2016</v>
@@ -4055,7 +4048,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="95" t="s">
         <v>79</v>
       </c>
@@ -4081,7 +4074,7 @@
         <v>25955.694894541382</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="95"/>
       <c r="B4" s="96"/>
       <c r="C4" s="117">
@@ -4109,7 +4102,7 @@
         <v>3.499999999999992</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="98" t="s">
         <v>80</v>
       </c>
@@ -4135,17 +4128,17 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -4164,36 +4157,36 @@
       <selection activeCell="E16" sqref="E16:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="63"/>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="136" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="141"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="138"/>
       <c r="L1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6">
         <v>2010</v>
@@ -4242,7 +4235,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="67" t="s">
         <v>139</v>
       </c>
@@ -4292,7 +4285,7 @@
         <v>0.92407119999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="67" t="s">
         <v>138</v>
       </c>
@@ -4342,20 +4335,20 @@
         <v>0.97661180000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="63"/>
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="141"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="138"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>2010</v>
@@ -4382,7 +4375,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>63</v>
       </c>
@@ -4392,7 +4385,7 @@
       <c r="C8" s="68">
         <v>160366844</v>
       </c>
-      <c r="D8" s="129">
+      <c r="D8" s="68">
         <v>165687181.23681599</v>
       </c>
       <c r="E8" s="6">
@@ -4416,7 +4409,7 @@
         <v>173977612.69859111</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>64</v>
       </c>
@@ -4426,7 +4419,7 @@
       <c r="C9" s="68">
         <v>100717248</v>
       </c>
-      <c r="D9" s="129">
+      <c r="D9" s="68">
         <v>108849193.073303</v>
       </c>
       <c r="E9" s="6">
@@ -4450,7 +4443,7 @@
         <v>115295071.51234123</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="76" t="s">
         <v>55</v>
       </c>
@@ -4493,7 +4486,7 @@
       <c r="O10" s="115"/>
       <c r="P10" s="115"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="76" t="s">
         <v>62</v>
       </c>
@@ -4529,7 +4522,7 @@
         <v>47944354</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="77" t="s">
         <v>57</v>
       </c>
@@ -4548,7 +4541,7 @@
       <c r="H12" s="80"/>
       <c r="I12" s="80"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="76" t="s">
         <v>58</v>
       </c>
@@ -4582,7 +4575,7 @@
         <v>2758283.322021395</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="76" t="s">
         <v>56</v>
       </c>
@@ -4619,7 +4612,7 @@
         <v>63477339.067660987</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="66" t="s">
         <v>41</v>
       </c>
@@ -4656,7 +4649,7 @@
         <v>5.440118044556639E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="66" t="s">
         <v>40</v>
       </c>
@@ -4693,7 +4686,7 @@
         <v>0.46580627646799733</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="66" t="s">
         <v>127</v>
       </c>
@@ -4730,20 +4723,20 @@
         <v>0.41584044635306044</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="63"/>
-      <c r="B18" s="145" t="s">
+      <c r="B18" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="145"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
       <c r="I18" s="120"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6">
         <v>2010</v>
@@ -4770,7 +4763,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="76" t="s">
         <v>55</v>
       </c>
@@ -4811,7 +4804,7 @@
         <v>-2.1747353658454482E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="76" t="s">
         <v>62</v>
       </c>
@@ -4852,7 +4845,7 @@
         <v>-2.0564268347690873E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="77" t="s">
         <v>57</v>
       </c>
@@ -4893,7 +4886,7 @@
         <v>-0.66439831714046438</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="76" t="s">
         <v>58</v>
       </c>
@@ -4934,7 +4927,7 @@
         <v>-1.1830853107636097E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="76" t="s">
         <v>56</v>
       </c>
@@ -4975,7 +4968,7 @@
         <v>2.1747353658454482E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="66"/>
       <c r="B25" s="70"/>
       <c r="C25" s="70"/>
@@ -4986,7 +4979,7 @@
       <c r="H25" s="70"/>
       <c r="I25" s="70"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="66"/>
       <c r="B26" s="70"/>
       <c r="C26" s="70"/>
@@ -4997,7 +4990,7 @@
       <c r="H26" s="70"/>
       <c r="I26" s="70"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="66"/>
       <c r="B27" s="70"/>
       <c r="C27" s="70"/>
@@ -5008,23 +5001,23 @@
       <c r="H27" s="70"/>
       <c r="I27" s="70"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="66"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="63"/>
-      <c r="B29" s="139" t="s">
+      <c r="B29" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="141"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="138"/>
+    </row>
+    <row r="30" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6">
         <v>2010</v>
@@ -5051,7 +5044,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A31" s="64" t="s">
         <v>55</v>
       </c>
@@ -5085,7 +5078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="65" t="s">
         <v>62</v>
       </c>
@@ -5119,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="72" t="s">
         <v>57</v>
       </c>
@@ -5138,7 +5131,7 @@
       <c r="H33" s="75"/>
       <c r="I33" s="75"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="65" t="s">
         <v>58</v>
       </c>
@@ -5172,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="76" t="s">
         <v>56</v>
       </c>
@@ -5205,12 +5198,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="66"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:14" ht="42.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="66"/>
       <c r="B37" s="85" t="s">
         <v>61</v>
@@ -5218,7 +5211,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:14" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A38" s="64" t="s">
         <v>55</v>
       </c>
@@ -5228,27 +5221,27 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="66"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="139" t="s">
+      <c r="B41" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="140"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="140"/>
-      <c r="F41" s="140"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="141"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="138"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>1</v>
       </c>
@@ -5284,7 +5277,7 @@
         <v>43346227</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>13</v>
       </c>
@@ -5329,12 +5322,12 @@
         <f>$K$49*L43</f>
         <v>1204588.399669572</v>
       </c>
-      <c r="N43" s="130">
+      <c r="N43" s="129">
         <f>M43+K43</f>
         <v>12560160.399669573</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>14</v>
       </c>
@@ -5379,12 +5372,12 @@
         <f t="shared" ref="M44:M48" si="27">$K$49*L44</f>
         <v>1220627.6595693324</v>
       </c>
-      <c r="N44" s="130">
+      <c r="N44" s="129">
         <f t="shared" ref="N44:N48" si="28">M44+K44</f>
         <v>12727400.659569332</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>6</v>
       </c>
@@ -5429,12 +5422,12 @@
         <f t="shared" si="27"/>
         <v>397937.87711421802</v>
       </c>
-      <c r="N45" s="130">
+      <c r="N45" s="129">
         <f t="shared" si="28"/>
         <v>4149270.8771142182</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>17</v>
       </c>
@@ -5479,12 +5472,12 @@
         <f t="shared" si="27"/>
         <v>621600.48261397693</v>
       </c>
-      <c r="N46" s="130">
+      <c r="N46" s="129">
         <f t="shared" si="28"/>
         <v>6481385.482613977</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>15</v>
       </c>
@@ -5529,12 +5522,12 @@
         <f t="shared" si="27"/>
         <v>475609.70715121296</v>
       </c>
-      <c r="N47" s="130">
+      <c r="N47" s="129">
         <f t="shared" si="28"/>
         <v>4959149.7071512127</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>16</v>
       </c>
@@ -5579,12 +5572,12 @@
         <f t="shared" si="27"/>
         <v>677762.87388168753</v>
       </c>
-      <c r="N48" s="130">
+      <c r="N48" s="129">
         <f t="shared" si="28"/>
         <v>7066986.8738816874</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>12</v>
       </c>
@@ -5624,22 +5617,22 @@
         <v>4598127</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="136" t="s">
+      <c r="B51" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="137"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="137"/>
-      <c r="I51" s="138"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C51" s="134"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="134"/>
+      <c r="H51" s="134"/>
+      <c r="I51" s="135"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>1</v>
       </c>
@@ -5668,7 +5661,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>13</v>
       </c>
@@ -5702,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>14</v>
       </c>
@@ -5736,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>6</v>
       </c>
@@ -5770,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
@@ -5804,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>15</v>
       </c>
@@ -5838,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>16</v>
       </c>
@@ -5872,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>12</v>
       </c>
@@ -5906,22 +5899,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="133"/>
-      <c r="B60" s="134"/>
-      <c r="C60" s="135"/>
-      <c r="D60" s="135"/>
-      <c r="E60" s="135"/>
-      <c r="F60" s="135"/>
-      <c r="G60" s="135"/>
-      <c r="H60" s="135"/>
-      <c r="I60" s="135"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="133"/>
-      <c r="B61" s="134"/>
-      <c r="C61" s="135"/>
-      <c r="D61" s="135"/>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="5"/>
+      <c r="C60" s="132"/>
+      <c r="D60" s="132"/>
+      <c r="E60" s="132"/>
+      <c r="F60" s="132"/>
+      <c r="G60" s="132"/>
+      <c r="H60" s="132"/>
+      <c r="I60" s="132"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="5"/>
+      <c r="C61" s="132"/>
+      <c r="D61" s="132"/>
       <c r="E61" t="s">
         <v>147</v>
       </c>
@@ -5938,7 +5929,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="E62">
         <v>0</v>
@@ -5956,37 +5947,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="143" t="s">
+      <c r="E63" s="140" t="s">
         <v>142</v>
       </c>
-      <c r="F63" s="143" t="s">
+      <c r="F63" s="140" t="s">
         <v>143</v>
       </c>
-      <c r="G63" s="143" t="s">
+      <c r="G63" s="140" t="s">
         <v>144</v>
       </c>
-      <c r="H63" s="143" t="s">
+      <c r="H63" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="I63" s="143" t="s">
+      <c r="I63" s="140" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E64" s="144"/>
-      <c r="F64" s="144"/>
-      <c r="G64" s="144"/>
-      <c r="H64" s="144"/>
-      <c r="I64" s="144"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E64" s="141"/>
+      <c r="F64" s="141"/>
+      <c r="G64" s="141"/>
+      <c r="H64" s="141"/>
+      <c r="I64" s="141"/>
+    </row>
+    <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>13</v>
       </c>
@@ -6011,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>14</v>
       </c>
@@ -6036,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>6</v>
       </c>
@@ -6061,7 +6052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>17</v>
       </c>
@@ -6086,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>15</v>
       </c>
@@ -6111,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>16</v>
       </c>
@@ -6136,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>12</v>
       </c>
@@ -6161,25 +6152,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B73" s="136" t="s">
+      <c r="B73" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="C73" s="137"/>
-      <c r="D73" s="137"/>
-      <c r="E73" s="137"/>
-      <c r="F73" s="137"/>
-      <c r="G73" s="137"/>
-      <c r="H73" s="137"/>
-      <c r="I73" s="138"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C73" s="134"/>
+      <c r="D73" s="134"/>
+      <c r="E73" s="134"/>
+      <c r="F73" s="134"/>
+      <c r="G73" s="134"/>
+      <c r="H73" s="134"/>
+      <c r="I73" s="135"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>1</v>
       </c>
@@ -6208,7 +6199,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>13</v>
       </c>
@@ -6246,7 +6237,7 @@
       </c>
       <c r="K75" s="118"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>14</v>
       </c>
@@ -6284,7 +6275,7 @@
       </c>
       <c r="K76" s="118"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>6</v>
       </c>
@@ -6322,7 +6313,7 @@
       </c>
       <c r="K77" s="118"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>17</v>
       </c>
@@ -6360,7 +6351,7 @@
       </c>
       <c r="K78" s="118"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>15</v>
       </c>
@@ -6398,7 +6389,7 @@
       </c>
       <c r="K79" s="118"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>16</v>
       </c>
@@ -6436,7 +6427,7 @@
       </c>
       <c r="K80" s="118"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>12</v>
       </c>
@@ -6473,22 +6464,22 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B83" s="139" t="s">
+      <c r="B83" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="C83" s="140"/>
-      <c r="D83" s="140"/>
-      <c r="E83" s="140"/>
-      <c r="F83" s="140"/>
-      <c r="G83" s="140"/>
-      <c r="H83" s="140"/>
-      <c r="I83" s="141"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C83" s="137"/>
+      <c r="D83" s="137"/>
+      <c r="E83" s="137"/>
+      <c r="F83" s="137"/>
+      <c r="G83" s="137"/>
+      <c r="H83" s="137"/>
+      <c r="I83" s="138"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>1</v>
       </c>
@@ -6515,7 +6506,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>13</v>
       </c>
@@ -6547,7 +6538,7 @@
         <v>13661.63</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>14</v>
       </c>
@@ -6579,7 +6570,7 @@
         <v>21720.69</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>6</v>
       </c>
@@ -6611,7 +6602,7 @@
         <v>21602.799999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>17</v>
       </c>
@@ -6643,7 +6634,7 @@
         <v>24836.91</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>15</v>
       </c>
@@ -6675,7 +6666,7 @@
         <v>17851.27</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>16</v>
       </c>
@@ -6707,7 +6698,7 @@
         <v>39394.660000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>12</v>
       </c>
@@ -6739,22 +6730,22 @@
         <v>21318.5</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="139" t="s">
+      <c r="B93" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C93" s="140"/>
-      <c r="D93" s="140"/>
-      <c r="E93" s="140"/>
-      <c r="F93" s="140"/>
-      <c r="G93" s="140"/>
-      <c r="H93" s="140"/>
-      <c r="I93" s="141"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C93" s="137"/>
+      <c r="D93" s="137"/>
+      <c r="E93" s="137"/>
+      <c r="F93" s="137"/>
+      <c r="G93" s="137"/>
+      <c r="H93" s="137"/>
+      <c r="I93" s="138"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>1</v>
       </c>
@@ -6783,7 +6774,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>13</v>
       </c>
@@ -6814,7 +6805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>14</v>
       </c>
@@ -6845,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>6</v>
       </c>
@@ -6876,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>17</v>
       </c>
@@ -6907,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>15</v>
       </c>
@@ -6938,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>16</v>
       </c>
@@ -6969,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>12</v>
       </c>
@@ -7000,28 +6991,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B103" s="142" t="s">
+      <c r="B103" s="139" t="s">
         <v>25</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B104" s="142"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="139"/>
+    </row>
+    <row r="105" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>13</v>
       </c>
@@ -7039,7 +7030,7 @@
         <v>5.2542784054490053</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>14</v>
       </c>
@@ -7051,7 +7042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>6</v>
       </c>
@@ -7063,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>17</v>
       </c>
@@ -7075,7 +7066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>15</v>
       </c>
@@ -7087,7 +7078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>16</v>
       </c>
@@ -7099,7 +7090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>12</v>
       </c>
@@ -7117,7 +7108,7 @@
       <c r="H111" s="115"/>
       <c r="I111" s="115"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C112" s="115"/>
       <c r="D112" s="115"/>
       <c r="E112" s="115"/>
@@ -7126,7 +7117,7 @@
       <c r="H112" s="115"/>
       <c r="I112" s="115"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>20</v>
       </c>
@@ -7155,7 +7146,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>13</v>
       </c>
@@ -7182,7 +7173,7 @@
         <v>3970522.9808035572</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>14</v>
       </c>
@@ -7209,7 +7200,7 @@
         <v>11251318.640213961</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>6</v>
       </c>
@@ -7236,7 +7227,7 @@
         <v>4037185.4353527054</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>17</v>
       </c>
@@ -7263,7 +7254,7 @@
         <v>14772029.933294186</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>15</v>
       </c>
@@ -7290,7 +7281,7 @@
         <v>3628410.6394054256</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>16</v>
       </c>
@@ -7317,7 +7308,7 @@
         <v>1262492.841692904</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>19</v>
       </c>
@@ -7345,7 +7336,7 @@
       </c>
       <c r="J120" s="128"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>21</v>
       </c>
@@ -7370,7 +7361,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>13</v>
       </c>
@@ -7401,7 +7392,7 @@
         <v>3.2499999999999973</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>14</v>
       </c>
@@ -7432,7 +7423,7 @@
         <v>4.9421765348432789</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>6</v>
       </c>
@@ -7463,7 +7454,7 @@
         <v>14.037751056038573</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>17</v>
       </c>
@@ -7494,7 +7485,7 @@
         <v>4.9249484975501412</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>15</v>
       </c>
@@ -7525,7 +7516,7 @@
         <v>7.8999999999999959</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>16</v>
       </c>
@@ -7556,7 +7547,7 @@
         <v>7.4000000000000066</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>19</v>
       </c>
@@ -7587,7 +7578,7 @@
         <v>5.9847077388634817</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B132" s="2">
         <v>2010</v>
       </c>
@@ -7613,33 +7604,33 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>121</v>
       </c>
       <c r="C133">
         <v>13879862.000000007</v>
       </c>
-      <c r="D133" s="132">
+      <c r="D133" s="131">
         <v>20233743.999999993</v>
       </c>
-      <c r="E133" s="132">
+      <c r="E133" s="131">
         <v>20635376.999999993</v>
       </c>
-      <c r="F133" s="132">
+      <c r="F133" s="131">
         <v>20924272.277999993</v>
       </c>
-      <c r="G133" s="132">
+      <c r="G133" s="131">
         <v>21957931.328533195</v>
       </c>
-      <c r="H133" s="132">
+      <c r="H133" s="131">
         <v>23121701.688945454</v>
       </c>
-      <c r="I133" s="132">
+      <c r="I133" s="131">
         <v>24416516.983526401</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>120</v>
       </c>
@@ -7672,7 +7663,7 @@
         <v>140342.86713559512</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>117</v>
       </c>
@@ -7701,7 +7692,7 @@
         <v>4.6331155138735758</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>125</v>
       </c>
@@ -7734,7 +7725,7 @@
         <v>223.71821217131765</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>126</v>
       </c>
@@ -7763,10 +7754,10 @@
         <v>5.0143008290211233</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I138" s="122"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>123</v>
       </c>
@@ -7778,7 +7769,7 @@
       </c>
       <c r="I139" s="122"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>124</v>
       </c>
@@ -7787,13 +7778,13 @@
         <v>21.623039044672332</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E141">
         <f>+E133/D133-1</f>
         <v>1.9849663018371766E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>122</v>
       </c>
@@ -7801,7 +7792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="97"/>
@@ -7838,16 +7829,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173B69FD-9B37-4D08-AADD-1A2EA594EA14}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScale="207" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A3" zoomScale="207" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="6">
         <v>2022</v>
       </c>
@@ -7867,7 +7858,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -7896,7 +7887,7 @@
         <v>5.0036649787201348E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="86" t="s">
         <v>100</v>
       </c>
@@ -7925,7 +7916,7 @@
         <v>5.9218431088389867E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="87" t="s">
         <v>101</v>
       </c>
@@ -7954,7 +7945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -7983,7 +7974,7 @@
         <v>8.1735651580316926E-9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -8012,7 +8003,7 @@
         <v>-1.4207251519682274E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="86" t="s">
         <v>69</v>
       </c>
@@ -8041,7 +8032,7 @@
         <v>9.1678402056718303E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="89" t="s">
         <v>81</v>
       </c>
@@ -8070,7 +8061,7 @@
         <v>-1.4207251519682274E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="89" t="s">
         <v>65</v>
       </c>
@@ -8099,7 +8090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="87" t="s">
         <v>70</v>
       </c>
@@ -8128,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -8157,7 +8148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -8186,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -8215,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -8244,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -8273,7 +8264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="86" t="s">
         <v>76</v>
       </c>
@@ -8302,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -8331,7 +8322,7 @@
         <v>0.17081331048343196</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -8360,7 +8351,7 @@
         <v>0.4069517579913875</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -8389,7 +8380,7 @@
         <v>0.4489538851688486</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -8418,7 +8409,7 @@
         <v>0.27422505788811824</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -8447,7 +8438,7 @@
         <v>0.44391481047198256</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -8476,7 +8467,7 @@
         <v>0.35662206357398452</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="86" t="s">
         <v>93</v>
       </c>
@@ -8505,7 +8496,7 @@
         <v>0.33244464131461493</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>94</v>
       </c>
@@ -8534,7 +8525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>95</v>
       </c>
@@ -8563,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>96</v>
       </c>
@@ -8592,7 +8583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>97</v>
       </c>
@@ -8621,7 +8612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>98</v>
       </c>
@@ -8650,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="99" t="s">
         <v>99</v>
       </c>
@@ -8679,7 +8670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A30" s="90" t="s">
         <v>77</v>
       </c>
@@ -8708,7 +8699,7 @@
         <v>0.23412253381996617</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="88" t="s">
         <v>82</v>
       </c>
@@ -8731,7 +8722,7 @@
         <v>1.1863902847571106E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="91" t="s">
         <v>78</v>
       </c>
@@ -8760,7 +8751,7 @@
         <v>0.33244464131461493</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>118</v>
       </c>
@@ -8801,49 +8792,49 @@
   </sheetPr>
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView zoomScale="157" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="1.42578125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="14" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="1.42578125" style="14" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" style="12" customWidth="1"/>
-    <col min="12" max="14" width="8.42578125" style="15"/>
-    <col min="15" max="16384" width="8.42578125" style="12"/>
+    <col min="1" max="1" width="4.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="12" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="13" customWidth="1"/>
+    <col min="5" max="5" width="1.5" style="12" customWidth="1"/>
+    <col min="6" max="6" width="3.5" style="12" customWidth="1"/>
+    <col min="7" max="7" width="2.83203125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="14" customWidth="1"/>
+    <col min="10" max="10" width="1.5" style="14" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="12" customWidth="1"/>
+    <col min="12" max="14" width="8.5" style="15"/>
+    <col min="15" max="16384" width="8.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="146" t="s">
+    <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="148"/>
-    </row>
-    <row r="3" spans="1:18" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="145"/>
+    </row>
+    <row r="3" spans="1:18" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
@@ -8866,7 +8857,7 @@
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
     </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="23"/>
       <c r="C5" s="16" t="s">
         <v>31</v>
@@ -8895,7 +8886,7 @@
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
     </row>
-    <row r="6" spans="1:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="23"/>
       <c r="J6" s="26"/>
       <c r="N6" s="15">
@@ -8907,7 +8898,7 @@
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
     </row>
-    <row r="7" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="23"/>
       <c r="C7" s="12" t="s">
         <v>35</v>
@@ -8931,7 +8922,7 @@
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
     </row>
-    <row r="8" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="31"/>
       <c r="C8" s="32"/>
       <c r="D8" s="33"/>
@@ -8953,7 +8944,7 @@
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
     </row>
-    <row r="9" spans="1:18" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M9" s="30">
         <v>2016</v>
       </c>
@@ -8966,19 +8957,19 @@
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
     </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="149" t="s">
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="151"/>
-      <c r="G10" s="149" t="s">
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="148"/>
+      <c r="G10" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="150"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="151"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="148"/>
       <c r="M10" s="30">
         <v>2017</v>
       </c>
@@ -8991,7 +8982,7 @@
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
     </row>
-    <row r="11" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="37"/>
       <c r="C11" s="100"/>
       <c r="D11" s="100"/>
@@ -9014,7 +9005,7 @@
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
     </row>
-    <row r="12" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="14" x14ac:dyDescent="0.2">
       <c r="B12" s="23">
         <v>9</v>
       </c>
@@ -9051,7 +9042,7 @@
       <c r="Q12" s="11"/>
       <c r="R12" s="14"/>
     </row>
-    <row r="13" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="14" x14ac:dyDescent="0.2">
       <c r="B13" s="23">
         <v>8</v>
       </c>
@@ -9088,7 +9079,7 @@
       <c r="Q13" s="11"/>
       <c r="R13" s="14"/>
     </row>
-    <row r="14" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="14" x14ac:dyDescent="0.2">
       <c r="B14" s="23"/>
       <c r="C14" s="101" t="s">
         <v>43</v>
@@ -9120,7 +9111,7 @@
       <c r="Q14" s="11"/>
       <c r="R14" s="14"/>
     </row>
-    <row r="15" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="14" x14ac:dyDescent="0.2">
       <c r="B15" s="23">
         <v>17</v>
       </c>
@@ -9157,7 +9148,7 @@
       <c r="Q15" s="11"/>
       <c r="R15" s="14"/>
     </row>
-    <row r="16" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="14" x14ac:dyDescent="0.2">
       <c r="B16" s="23">
         <v>18</v>
       </c>
@@ -9185,7 +9176,7 @@
       <c r="Q16" s="11"/>
       <c r="R16" s="14"/>
     </row>
-    <row r="17" spans="2:19" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" ht="14" x14ac:dyDescent="0.2">
       <c r="B17" s="23">
         <v>19</v>
       </c>
@@ -9209,7 +9200,7 @@
       <c r="Q17" s="11"/>
       <c r="R17" s="14"/>
     </row>
-    <row r="18" spans="2:19" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" ht="14" x14ac:dyDescent="0.2">
       <c r="B18" s="23">
         <v>20</v>
       </c>
@@ -9233,7 +9224,7 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="14"/>
     </row>
-    <row r="19" spans="2:19" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" ht="14" x14ac:dyDescent="0.2">
       <c r="B19" s="23">
         <v>21</v>
       </c>
@@ -9257,7 +9248,7 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="14"/>
     </row>
-    <row r="20" spans="2:19" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" ht="14" x14ac:dyDescent="0.2">
       <c r="B20" s="23">
         <v>22</v>
       </c>
@@ -9283,7 +9274,7 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="14"/>
     </row>
-    <row r="21" spans="2:19" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" ht="14" x14ac:dyDescent="0.2">
       <c r="B21" s="23">
         <v>23</v>
       </c>
@@ -9304,7 +9295,7 @@
       <c r="Q21" s="11"/>
       <c r="R21" s="14"/>
     </row>
-    <row r="22" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="23"/>
       <c r="C22" s="101" t="s">
         <v>46</v>
@@ -9320,7 +9311,7 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="14"/>
     </row>
-    <row r="23" spans="2:19" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" ht="14" x14ac:dyDescent="0.2">
       <c r="B23" s="23">
         <v>24</v>
       </c>
@@ -9339,7 +9330,7 @@
       <c r="Q23" s="11"/>
       <c r="R23" s="14"/>
     </row>
-    <row r="24" spans="2:19" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="14" x14ac:dyDescent="0.2">
       <c r="B24" s="23">
         <v>25</v>
       </c>
@@ -9360,7 +9351,7 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="14"/>
     </row>
-    <row r="25" spans="2:19" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" ht="14" x14ac:dyDescent="0.2">
       <c r="B25" s="23">
         <v>26</v>
       </c>
@@ -9381,7 +9372,7 @@
       <c r="Q25" s="11"/>
       <c r="R25" s="14"/>
     </row>
-    <row r="26" spans="2:19" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" ht="14" x14ac:dyDescent="0.2">
       <c r="B26" s="23">
         <v>27</v>
       </c>
@@ -9399,7 +9390,7 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="14"/>
     </row>
-    <row r="27" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="23">
         <v>28</v>
       </c>
@@ -9418,7 +9409,7 @@
       <c r="Q27" s="11"/>
       <c r="R27" s="14"/>
     </row>
-    <row r="28" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="23">
         <v>29</v>
       </c>
@@ -9431,14 +9422,14 @@
       </c>
       <c r="E28" s="29"/>
       <c r="G28" s="54"/>
-      <c r="H28" s="152" t="s">
+      <c r="H28" s="149" t="s">
         <v>52</v>
       </c>
-      <c r="I28" s="152"/>
-      <c r="J28" s="153"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="150"/>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="2:19" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" ht="14" x14ac:dyDescent="0.2">
       <c r="B29" s="23"/>
       <c r="C29" s="101"/>
       <c r="D29" s="43"/>
@@ -9456,7 +9447,7 @@
       <c r="J29" s="26"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="2:19" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" ht="14" x14ac:dyDescent="0.2">
       <c r="B30" s="23"/>
       <c r="C30" s="104" t="s">
         <v>53</v>
@@ -9469,7 +9460,7 @@
       <c r="J30" s="26"/>
       <c r="Q30" s="11"/>
     </row>
-    <row r="31" spans="2:19" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" ht="14" x14ac:dyDescent="0.2">
       <c r="B31" s="23">
         <v>10</v>
       </c>
@@ -9488,7 +9479,7 @@
       <c r="Q31" s="11"/>
       <c r="S31" s="125"/>
     </row>
-    <row r="32" spans="2:19" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" ht="14" x14ac:dyDescent="0.2">
       <c r="B32" s="23">
         <v>11</v>
       </c>
@@ -9507,7 +9498,7 @@
       <c r="Q32" s="11"/>
       <c r="S32" s="125"/>
     </row>
-    <row r="33" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="23">
         <v>12</v>
       </c>
@@ -9526,7 +9517,7 @@
       <c r="Q33" s="11"/>
       <c r="S33" s="125"/>
     </row>
-    <row r="34" spans="2:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="23">
         <v>13</v>
       </c>
@@ -9545,7 +9536,7 @@
       <c r="Q34" s="11"/>
       <c r="S34" s="125"/>
     </row>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="23">
         <v>14</v>
       </c>
@@ -9564,7 +9555,7 @@
       <c r="Q35" s="11"/>
       <c r="S35" s="125"/>
     </row>
-    <row r="36" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="23">
         <v>15</v>
       </c>
@@ -9583,14 +9574,14 @@
       <c r="Q36" s="11"/>
       <c r="S36" s="125"/>
     </row>
-    <row r="37" spans="2:19" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:19" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="31">
         <v>16</v>
       </c>
       <c r="C37" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="131">
+      <c r="D37" s="130">
         <f>HLOOKUP($D$7,summary!$A$1:$G$32,B37,0)</f>
         <v>0</v>
       </c>
@@ -9602,25 +9593,25 @@
       <c r="Q37" s="11"/>
       <c r="S37" s="125"/>
     </row>
-    <row r="38" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G38" s="23"/>
       <c r="H38" s="58"/>
       <c r="I38" s="43"/>
       <c r="J38" s="26"/>
     </row>
-    <row r="39" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G39" s="23"/>
       <c r="H39" s="58"/>
       <c r="I39" s="43"/>
       <c r="J39" s="26"/>
     </row>
-    <row r="40" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G40" s="23"/>
       <c r="H40" s="58"/>
       <c r="I40" s="43"/>
       <c r="J40" s="26"/>
     </row>
-    <row r="41" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C41" s="59"/>
       <c r="D41" s="43"/>
       <c r="G41" s="31"/>
@@ -9628,30 +9619,30 @@
       <c r="I41" s="61"/>
       <c r="J41" s="62"/>
     </row>
-    <row r="42" spans="2:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="2:19" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="C43" s="42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="2:19" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="C44" s="42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="2:19" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="C45" s="42" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="2:19" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="C46" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="2:19" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="C47" s="47" t="s">
         <v>51</v>
       </c>
@@ -9686,13 +9677,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B249CC-22B8-4061-940A-9D8BF19EDCFF}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="327" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="109" t="s">
         <v>107</v>
       </c>
@@ -9712,7 +9703,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="106">
         <f>IF(parameters!D5="national",1,0)</f>
         <v>0</v>
@@ -9744,15 +9735,15 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
@@ -9760,7 +9751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -9769,7 +9760,7 @@
         <v>0.17081331048343196</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -9778,7 +9769,7 @@
         <v>0.4069517579913875</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -9787,7 +9778,7 @@
         <v>0.4489538851688486</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -9796,7 +9787,7 @@
         <v>0.27422505788811824</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -9805,7 +9796,7 @@
         <v>0.44391481047198256</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -9814,7 +9805,7 @@
         <v>0.35662206357398452</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -9832,16 +9823,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA06731-EB71-484B-B54E-B0DD964A4882}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
@@ -9849,7 +9840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -9858,7 +9849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -9867,7 +9858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -9876,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -9885,7 +9876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -9894,7 +9885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -9903,7 +9894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -9925,9 +9916,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>104</v>
       </c>
@@ -9935,7 +9926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="106" t="s">
         <v>102</v>
       </c>
@@ -9944,7 +9935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="106" t="s">
         <v>103</v>
       </c>
@@ -9953,7 +9944,7 @@
         <v>-1.4207251519682274E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="106" t="s">
         <v>94</v>
       </c>
@@ -9962,7 +9953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="106" t="s">
         <v>95</v>
       </c>
@@ -9971,7 +9962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="106" t="s">
         <v>96</v>
       </c>
@@ -9980,7 +9971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="106" t="s">
         <v>97</v>
       </c>
@@ -9989,7 +9980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="106" t="s">
         <v>98</v>
       </c>
@@ -9998,7 +9989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="106" t="s">
         <v>99</v>
       </c>

--- a/2024AM/Data/INPUT/Macro and elasticities/Inputs elasticities 2027.xlsx
+++ b/2024AM/Data/INPUT/Macro and elasticities/Inputs elasticities 2027.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="6_{1AC7072B-1F4D-6347-A4E2-C4F07A792886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88BCF0E3-77EA-F947-9B74-3F10305DF30A}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="500" windowWidth="35240" windowHeight="24780" activeTab="7" xr2:uid="{E93185CF-480B-4E3C-B588-1ACF0BE2B580}"/>
+    <workbookView xWindow="12680" yWindow="800" windowWidth="35240" windowHeight="24780" activeTab="2" xr2:uid="{E93185CF-480B-4E3C-B588-1ACF0BE2B580}"/>
   </bookViews>
   <sheets>
     <sheet name="match sectors" sheetId="2" r:id="rId1"/>
@@ -1684,6 +1684,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1701,9 +1704,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3442,6 +3442,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4153,7 +4157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F65A50-DB8B-4A72-A662-4F6ED52A55EE}">
   <dimension ref="A1:Q144"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E16" sqref="E16:I16"/>
     </sheetView>
   </sheetViews>
@@ -4166,22 +4170,24 @@
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="9" width="17.5" customWidth="1"/>
     <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="63"/>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="137" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="139"/>
       <c r="L1" t="s">
         <v>140</v>
       </c>
@@ -4337,16 +4343,16 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="63"/>
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="138"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -4725,15 +4731,15 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="63"/>
-      <c r="B18" s="142" t="s">
+      <c r="B18" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
       <c r="I18" s="120"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -5006,16 +5012,16 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="63"/>
-      <c r="B29" s="136" t="s">
+      <c r="B29" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="137"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="138"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="139"/>
     </row>
     <row r="30" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
@@ -5230,16 +5236,16 @@
       <c r="A41" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="136" t="s">
+      <c r="B41" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="137"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="137"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="137"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="138"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="138"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="139"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
@@ -5951,19 +5957,19 @@
       <c r="A63" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="140" t="s">
+      <c r="E63" s="141" t="s">
         <v>142</v>
       </c>
-      <c r="F63" s="140" t="s">
+      <c r="F63" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="G63" s="140" t="s">
+      <c r="G63" s="141" t="s">
         <v>144</v>
       </c>
-      <c r="H63" s="140" t="s">
+      <c r="H63" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="I63" s="140" t="s">
+      <c r="I63" s="141" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5971,11 +5977,11 @@
       <c r="A64" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E64" s="141"/>
-      <c r="F64" s="141"/>
-      <c r="G64" s="141"/>
-      <c r="H64" s="141"/>
-      <c r="I64" s="141"/>
+      <c r="E64" s="142"/>
+      <c r="F64" s="142"/>
+      <c r="G64" s="142"/>
+      <c r="H64" s="142"/>
+      <c r="I64" s="142"/>
     </row>
     <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
@@ -6468,16 +6474,16 @@
       <c r="A83" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B83" s="136" t="s">
+      <c r="B83" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="C83" s="137"/>
-      <c r="D83" s="137"/>
-      <c r="E83" s="137"/>
-      <c r="F83" s="137"/>
-      <c r="G83" s="137"/>
-      <c r="H83" s="137"/>
-      <c r="I83" s="138"/>
+      <c r="C83" s="138"/>
+      <c r="D83" s="138"/>
+      <c r="E83" s="138"/>
+      <c r="F83" s="138"/>
+      <c r="G83" s="138"/>
+      <c r="H83" s="138"/>
+      <c r="I83" s="139"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
@@ -6734,16 +6740,16 @@
       <c r="A93" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="136" t="s">
+      <c r="B93" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="C93" s="137"/>
-      <c r="D93" s="137"/>
-      <c r="E93" s="137"/>
-      <c r="F93" s="137"/>
-      <c r="G93" s="137"/>
-      <c r="H93" s="137"/>
-      <c r="I93" s="138"/>
+      <c r="C93" s="138"/>
+      <c r="D93" s="138"/>
+      <c r="E93" s="138"/>
+      <c r="F93" s="138"/>
+      <c r="G93" s="138"/>
+      <c r="H93" s="138"/>
+      <c r="I93" s="139"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
@@ -6999,7 +7005,7 @@
       <c r="A103" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B103" s="139" t="s">
+      <c r="B103" s="140" t="s">
         <v>25</v>
       </c>
       <c r="C103">
@@ -7010,7 +7016,7 @@
       <c r="A104" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B104" s="139"/>
+      <c r="B104" s="140"/>
     </row>
     <row r="105" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
@@ -7802,12 +7808,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B29:I29"/>
     <mergeCell ref="B73:I73"/>
     <mergeCell ref="B83:I83"/>
     <mergeCell ref="B93:I93"/>
@@ -7817,6 +7817,12 @@
     <mergeCell ref="G63:G64"/>
     <mergeCell ref="H63:H64"/>
     <mergeCell ref="I63:I64"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B29:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9823,7 +9829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA06731-EB71-484B-B54E-B0DD964A4882}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
